--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_20-26.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_20-26.xlsx
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
     <t>PANADOL ACUTE HEAD COLD</t>
@@ -2316,17 +2319,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2334,7 +2337,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2342,17 +2345,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2368,17 +2371,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2394,17 +2397,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>85</v>
+        <v>450</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2420,17 +2423,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>39.899999999999999</v>
+        <v>85</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2438,7 +2441,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2446,13 +2449,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>45</v>
+        <v>39.899999999999999</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2472,13 +2475,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>80.75</v>
+        <v>45</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2498,17 +2501,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>47</v>
+        <v>80.75</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2524,17 +2527,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>-86.5</v>
+        <v>47</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2550,17 +2553,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>36</v>
+        <v>-86.5</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2582,7 +2585,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2602,13 +2605,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2628,17 +2631,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2646,7 +2649,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2654,17 +2657,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2680,13 +2683,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>-23</v>
+        <v>72</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2706,17 +2709,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>35</v>
+        <v>-23</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2738,7 +2741,7 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2764,11 +2767,11 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>92.120000000000005</v>
+        <v>58</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2784,13 +2787,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>99</v>
+        <v>92.120000000000005</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2816,11 +2819,11 @@
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2836,13 +2839,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2862,13 +2865,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2888,17 +2891,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2914,17 +2917,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2940,17 +2943,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2958,7 +2961,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2966,13 +2969,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -2984,7 +2987,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2992,17 +2995,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3010,7 +3013,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3018,17 +3021,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>114</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3036,7 +3039,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3044,17 +3047,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>59</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3062,7 +3065,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3070,17 +3073,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3088,7 +3091,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3096,17 +3099,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3122,51 +3125,77 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
-      <c r="K88" s="10">
-        <v>4425.0600000000004</v>
-      </c>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-    </row>
-    <row r="89" ht="17.25" customHeight="1">
-      <c t="s" r="A89" s="11">
+      <c r="A88" s="6">
+        <v>85</v>
+      </c>
+      <c t="s" r="B88" s="7">
         <v>121</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c t="s" r="F89" s="12">
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c t="s" r="H88" s="8">
+        <v>77</v>
+      </c>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="9">
+        <v>20</v>
+      </c>
+      <c r="M88" s="9"/>
+      <c t="s" r="N88" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="K89" s="10">
+        <v>4449.0600000000004</v>
+      </c>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="11">
         <v>122</v>
       </c>
-      <c r="G89" s="12"/>
-      <c r="H89" s="13"/>
-      <c t="s" r="I89" s="14">
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c t="s" r="F90" s="12">
         <v>123</v>
       </c>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="13"/>
+      <c t="s" r="I90" s="14">
+        <v>124</v>
+      </c>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="263">
+  <mergeCells count="266">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3426,10 +3455,13 @@
     <mergeCell ref="B87:G87"/>
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="I89:N89"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="I90:N90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
